--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_128.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_128.xlsx
@@ -1380,7 +1380,7 @@
         <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>48</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_128.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_128.xlsx
@@ -3933,7 +3933,7 @@
         <v>72</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>140</v>
@@ -3956,7 +3956,7 @@
         <v>74</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>140</v>
@@ -3965,7 +3965,7 @@
         <v>75</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>142</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_128.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_128.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="157">
   <si>
     <t>Sezione</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -529,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H165"/>
+  <dimension ref="A1:H173"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1173,7 +1185,7 @@
         <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>48</v>
@@ -1196,7 +1208,7 @@
         <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>48</v>
@@ -1242,7 +1254,7 @@
         <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>48</v>
@@ -1265,7 +1277,7 @@
         <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>48</v>
@@ -1610,7 +1622,7 @@
         <v>94</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>48</v>
@@ -1633,7 +1645,7 @@
         <v>96</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>48</v>
@@ -1682,10 +1694,10 @@
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1699,16 +1711,16 @@
         <v>45</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1719,22 +1731,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>35</v>
@@ -1742,19 +1754,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="E53" s="2" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1765,22 +1777,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>35</v>
@@ -1788,19 +1800,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1811,19 +1823,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1834,19 +1846,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1857,19 +1869,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1880,22 +1892,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>35</v>
@@ -1903,22 +1915,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>35</v>
@@ -1926,19 +1938,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1949,22 +1961,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>35</v>
@@ -1972,22 +1984,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>35</v>
@@ -1995,22 +2007,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>35</v>
@@ -2018,19 +2030,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2041,19 +2053,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>21</v>
@@ -2064,19 +2076,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>21</v>
@@ -2087,19 +2099,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2110,22 +2122,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>35</v>
@@ -2133,22 +2145,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>35</v>
@@ -2156,19 +2168,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>21</v>
@@ -2179,19 +2191,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2202,19 +2214,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>21</v>
@@ -2225,22 +2237,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>35</v>
@@ -2248,22 +2260,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>35</v>
@@ -2271,19 +2283,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2294,22 +2306,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>35</v>
@@ -2317,22 +2329,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>35</v>
@@ -2340,22 +2352,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="E79" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>35</v>
@@ -2363,19 +2375,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2386,22 +2398,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>35</v>
@@ -2409,22 +2421,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>35</v>
@@ -2432,22 +2444,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>35</v>
@@ -2455,19 +2467,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2478,22 +2490,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>35</v>
@@ -2501,22 +2513,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>35</v>
@@ -2524,22 +2536,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>35</v>
@@ -2547,19 +2559,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2570,19 +2582,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2593,19 +2605,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2616,22 +2628,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>35</v>
@@ -2639,22 +2651,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>35</v>
@@ -2662,22 +2674,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>35</v>
@@ -2685,22 +2697,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>35</v>
@@ -2708,19 +2720,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2731,19 +2743,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2754,19 +2766,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>21</v>
@@ -2777,22 +2789,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>35</v>
@@ -2800,22 +2812,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>35</v>
@@ -2823,19 +2835,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>21</v>
@@ -2846,19 +2858,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2869,22 +2881,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>35</v>
@@ -2892,22 +2904,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>35</v>
@@ -2915,19 +2927,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>21</v>
@@ -2938,22 +2950,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>35</v>
@@ -2961,22 +2973,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>35</v>
@@ -2984,19 +2996,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3007,22 +3019,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>35</v>
@@ -3030,19 +3042,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3053,19 +3065,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>21</v>
@@ -3076,22 +3088,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>35</v>
@@ -3099,22 +3111,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>35</v>
@@ -3122,22 +3134,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>35</v>
@@ -3145,19 +3157,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3168,19 +3180,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3191,10 +3203,10 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -3203,10 +3215,10 @@
         <v>123</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>35</v>
@@ -3214,10 +3226,10 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -3226,7 +3238,7 @@
         <v>123</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3237,22 +3249,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>35</v>
@@ -3260,22 +3272,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E119" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>35</v>
@@ -3283,19 +3295,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3306,19 +3318,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3329,19 +3341,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3352,19 +3364,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3375,19 +3387,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3398,19 +3410,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3421,19 +3433,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3444,19 +3456,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3467,19 +3479,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3490,19 +3502,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3513,19 +3525,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3536,19 +3548,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3559,19 +3571,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3582,19 +3594,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3605,19 +3617,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3628,16 +3640,16 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>138</v>
@@ -3651,691 +3663,875 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E140" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E162" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E163" s="2" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E164" s="2" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="E165" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E165" s="2" t="s">
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G165" s="2" t="s">
+      <c r="F171" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>35</v>
       </c>
     </row>
